--- a/Dicionário de dados/Ficha_tecnica.xlsx
+++ b/Dicionário de dados/Ficha_tecnica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Girardi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supor\OneDrive\Área de Trabalho\TrabalhoBD\Dicionário de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD6F2DA-CF55-46A7-BB5A-A1A8CA4E7915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4C0CA-89CE-40BF-BF70-A3DF86350D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DCF4CC4-BC92-4B37-A395-878087F32D44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DCF4CC4-BC92-4B37-A395-878087F32D44}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Tabela</t>
   </si>
@@ -83,18 +83,12 @@
     <t>X</t>
   </si>
   <si>
-    <t>id_produto</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
     <t>1 - sem limite</t>
   </si>
   <si>
-    <t>Referencia o id do produto</t>
-  </si>
-  <si>
     <t>nome</t>
   </si>
   <si>
@@ -107,15 +101,6 @@
     <t>Sabores de bolos disponiveis. 1- Tradicional / 2- Chocolate</t>
   </si>
   <si>
-    <t>sabor_recheio</t>
-  </si>
-  <si>
-    <t>decoracao_bolo</t>
-  </si>
-  <si>
-    <t>sabor_bolo</t>
-  </si>
-  <si>
     <t>Tabela responsável por armazenar dados completos dos bolos</t>
   </si>
   <si>
@@ -128,93 +113,12 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>manteiga_gramas</t>
-  </si>
-  <si>
-    <t>trigo_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de manteiga utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de trigo utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>acucar_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de acucar utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>ovos_unidades</t>
-  </si>
-  <si>
-    <t>Quantidade de unidades de ovos utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>leite_ml</t>
-  </si>
-  <si>
-    <t>Quantidade em MLs de leite utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>fermento_po_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de fermento utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>baunilha_ml</t>
-  </si>
-  <si>
-    <t>Quantidade em Mls de baunilha utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>sal_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de sal utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>cobertura_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de cobertura utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>recheio_gramas</t>
-  </si>
-  <si>
-    <t>Quantidade em gramas de recheio utilizadas para produção do bolo</t>
-  </si>
-  <si>
-    <t>Sabores de bolos para produção. 1- Tradicional / 2- Chocolate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabores de recheio do bolo para produção.  1- Brigadeiro / 2- Brigadeiro Branco / 3- Dois Amores / 4-Ninho com nutella / 5- Quatro Leites / 6- Sensação / 5- Cocada / 6- Caramelo Salgado </t>
-  </si>
-  <si>
-    <t>Decoração utilizada para produção do bolo. 1- Bento (frase personalizada) / 2- Desenho animado / 3- Time de futebol / 4- Cor lisa, 5- Mandar referencia</t>
-  </si>
-  <si>
-    <t>tempo_producao</t>
-  </si>
-  <si>
     <t>INTERVAL</t>
   </si>
   <si>
     <t>Tempo total para produção do bolo</t>
   </si>
   <si>
-    <t>modo_preparo</t>
-  </si>
-  <si>
-    <t>Descrição total do preparo para o bolo</t>
-  </si>
-  <si>
-    <t>custo_unitario</t>
-  </si>
-  <si>
     <t>DECIMAL</t>
   </si>
   <si>
@@ -225,6 +129,42 @@
   </si>
   <si>
     <t>( 10 , 2 )</t>
+  </si>
+  <si>
+    <t>id_massa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codigo identificador referenciador do tipo de massa .1- Tradicional / 2- Chocolate </t>
+  </si>
+  <si>
+    <t>id_recheio</t>
+  </si>
+  <si>
+    <t>Codigo identificador referenciador do tipo de massa .1- Bento (frase personalizada) / 2- Desenho animado / 3- Time de futebol / 4- Cor lisa, 5- Mandar referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codigo identificador referenciador do tipo de massa .1- Brigadeiro / 2- Brigadeiro Branco / 3- Dois Amores / 4-Ninho com nutella / 5- Quatro Leites / 6- Sensação / 5- Cocada / 6- Caramelo Salgado </t>
+  </si>
+  <si>
+    <t>id_decoracao</t>
+  </si>
+  <si>
+    <t>tempo_preparo</t>
+  </si>
+  <si>
+    <t>custo_total</t>
+  </si>
+  <si>
+    <t>servicos_utilizados</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 - 50</t>
+  </si>
+  <si>
+    <t>Serviços utilizados para o preparo do bolo</t>
   </si>
 </sst>
 </file>
@@ -277,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -300,11 +240,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -313,13 +290,31 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -656,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77C5C6D-C09F-45C3-B8E6-3C69CA2C291B}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,44 +676,44 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,7 +737,7 @@
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -757,41 +752,39 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
@@ -799,60 +792,65 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -860,19 +858,19 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -880,19 +878,19 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -900,19 +898,19 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -920,245 +918,15 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A24:B24"/>
+  <mergeCells count="13">
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -1169,6 +937,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dicionário de dados/Ficha_tecnica.xlsx
+++ b/Dicionário de dados/Ficha_tecnica.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supor\OneDrive\Área de Trabalho\TrabalhoBD\Dicionário de dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A4C0CA-89CE-40BF-BF70-A3DF86350D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DCF4CC4-BC92-4B37-A395-878087F32D44}"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Tabela</t>
   </si>
@@ -47,6 +38,9 @@
     <t>Descrição</t>
   </si>
   <si>
+    <t>Tabela responsável por armazenar dados completos dos bolos</t>
+  </si>
+  <si>
     <t>Atributos</t>
   </si>
   <si>
@@ -83,34 +77,52 @@
     <t>X</t>
   </si>
   <si>
+    <t xml:space="preserve"> Codigo identificador da ficha tecnica</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>10 - 100</t>
+  </si>
+  <si>
+    <t>Nome do produto</t>
+  </si>
+  <si>
+    <t>descricao</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>1 - sem limite</t>
+  </si>
+  <si>
+    <t>Descrição detalhada do produto.</t>
+  </si>
+  <si>
+    <t>id_massa</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
-    <t>1 - sem limite</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>descricao</t>
-  </si>
-  <si>
-    <t>Sabores de bolos disponiveis. 1- Tradicional / 2- Chocolate</t>
-  </si>
-  <si>
-    <t>Tabela responsável por armazenar dados completos dos bolos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Codigo identificador da ficha tecnica</t>
-  </si>
-  <si>
-    <t>Nome do produto completo</t>
-  </si>
-  <si>
-    <t>TEXT</t>
+    <t>Codigo identificador referenciador do tipo de massa.</t>
+  </si>
+  <si>
+    <t>id_recheio</t>
+  </si>
+  <si>
+    <t>id_decoracao</t>
+  </si>
+  <si>
+    <t>Codigo identificador referenciador do tipo de massa .</t>
+  </si>
+  <si>
+    <t>tempo_preparo</t>
   </si>
   <si>
     <t>INTERVAL</t>
@@ -119,64 +131,46 @@
     <t>Tempo total para produção do bolo</t>
   </si>
   <si>
+    <t>servicos_utilizados</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 - 50</t>
+  </si>
+  <si>
+    <t>Serviços utilizados para o preparo do bolo (ID's da tabela serviço)</t>
+  </si>
+  <si>
+    <t>custo_total</t>
+  </si>
+  <si>
     <t>DECIMAL</t>
   </si>
   <si>
+    <t>( 10 , 2 )</t>
+  </si>
+  <si>
     <t>Custo para preparo do bolo</t>
-  </si>
-  <si>
-    <t>10 - 100</t>
-  </si>
-  <si>
-    <t>( 10 , 2 )</t>
-  </si>
-  <si>
-    <t>id_massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo identificador referenciador do tipo de massa .1- Tradicional / 2- Chocolate </t>
-  </si>
-  <si>
-    <t>id_recheio</t>
-  </si>
-  <si>
-    <t>Codigo identificador referenciador do tipo de massa .1- Bento (frase personalizada) / 2- Desenho animado / 3- Time de futebol / 4- Cor lisa, 5- Mandar referencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo identificador referenciador do tipo de massa .1- Brigadeiro / 2- Brigadeiro Branco / 3- Dois Amores / 4-Ninho com nutella / 5- Quatro Leites / 6- Sensação / 5- Cocada / 6- Caramelo Salgado </t>
-  </si>
-  <si>
-    <t>id_decoracao</t>
-  </si>
-  <si>
-    <t>tempo_preparo</t>
-  </si>
-  <si>
-    <t>custo_total</t>
-  </si>
-  <si>
-    <t>servicos_utilizados</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 - 50</t>
-  </si>
-  <si>
-    <t>Serviços utilizados para o preparo do bolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,14 +178,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFA6A6A6"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,11 +193,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +361,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -227,42 +558,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,65 +588,364 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -377,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -410,26 +1027,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -462,23 +1062,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,293 +1223,287 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77C5C6D-C09F-45C3-B8E6-3C69CA2C291B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.8518518518519" customWidth="1"/>
+    <col min="2" max="2" width="16.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="17.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="18.4259259259259" customWidth="1"/>
+    <col min="5" max="5" width="20.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="9.85185185185185" customWidth="1"/>
+    <col min="7" max="7" width="8.28703703703704" customWidth="1"/>
+    <col min="8" max="8" width="35.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="27.75" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+    <row r="3" ht="25.5" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" ht="29.25" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="32.25" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="8" ht="28.8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="28.8" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="3"/>
+    <row r="12" ht="28.8" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="3"/>
+    <row r="17" spans="14:14">
+      <c r="N17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -937,10 +1514,12 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Dicionário de dados/Ficha_tecnica.xlsx
+++ b/Dicionário de dados/Ficha_tecnica.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Tabela</t>
   </si>
@@ -80,6 +80,27 @@
     <t xml:space="preserve"> Codigo identificador da ficha tecnica</t>
   </si>
   <si>
+    <t>id_massa</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Codigo identificador referenciador do tipo de massa.</t>
+  </si>
+  <si>
+    <t>id_recheio</t>
+  </si>
+  <si>
+    <t>1 - sem limite</t>
+  </si>
+  <si>
+    <t>id_decoracao</t>
+  </si>
+  <si>
+    <t>Codigo identificador referenciador do tipo de massa .</t>
+  </si>
+  <si>
     <t>nome</t>
   </si>
   <si>
@@ -98,28 +119,7 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t>1 - sem limite</t>
-  </si>
-  <si>
     <t>Descrição detalhada do produto.</t>
-  </si>
-  <si>
-    <t>id_massa</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>Codigo identificador referenciador do tipo de massa.</t>
-  </si>
-  <si>
-    <t>id_recheio</t>
-  </si>
-  <si>
-    <t>id_decoracao</t>
-  </si>
-  <si>
-    <t>Codigo identificador referenciador do tipo de massa .</t>
   </si>
   <si>
     <t>tempo_preparo</t>
@@ -175,18 +175,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFA6A6A6"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1232,7 +1230,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1247,7 +1245,7 @@
     <col min="8" max="8" width="35.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1285,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="32.25" customHeight="1" spans="1:8">
+    <row r="6" ht="30" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1342,45 +1340,50 @@
         <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" ht="30" spans="1:13">
+      <c r="A7" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M7" s="11"/>
     </row>
-    <row r="8" ht="28.8" spans="1:8">
+    <row r="8" ht="30" spans="1:13">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -1393,42 +1396,41 @@
         <v>15</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M8" s="11"/>
     </row>
-    <row r="9" ht="28.8" spans="1:11">
+    <row r="9" ht="15" spans="1:13">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
-    <row r="10" ht="28.8" spans="1:8">
+    <row r="10" ht="15" spans="1:13">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>14</v>
@@ -1438,8 +1440,9 @@
       <c r="H10" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="15" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>14</v>
@@ -1459,7 +1462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" ht="30" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" ht="15" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
